--- a/biology/Médecine/Pierre_Mâle/Pierre_Mâle.xlsx
+++ b/biology/Médecine/Pierre_Mâle/Pierre_Mâle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_M%C3%A2le</t>
+          <t>Pierre_Mâle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Mâle est un psychiatre et psychanalyste français né à Charolles en Saône-et-Loire le 11 octobre 1900 et mort à Paris le 20 juillet 1976[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Mâle est un psychiatre et psychanalyste français né à Charolles en Saône-et-Loire le 11 octobre 1900 et mort à Paris le 20 juillet 1976.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_M%C3%A2le</t>
+          <t>Pierre_Mâle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'un milieu d'universitaires, son père était un grand historien de l'art religieux (Émile Mâle), il a fait ses études de médecine à Paris. Il a été externe à l'hôpital psychiatrique de Sainte-Anne à Paris où le professeur Henri Claude était la figure dominante. Il a soutenu sa thèse en 1927, Les troubles mentaux de l'hérédo-syphilis, et a lui aussi été profondément marqué par son passage à l'hôpital psychiatrique de Sainte-Anne. Il s'est spécialisé dans la psychiatrie infanto-juvénile (aujourd'hui pédopsychiatrie). C'est à l'hôpital Henri-Rousselle qu'il forma nombre de jeunes psychiatres. 
 Dès 1925, son service s'est ouvert à la psychanalyse, il a travaillé avec les psychanalystes René Diatkine, Roger Misès, etc. Il a été un membre actif de la Société française de psychanalyse. Il était aussi proche des membres de l'Évolution psychiatrique. Il a aussi été inspiré par les travaux de Henri Wallon et de Jean Piaget. Il était un excellent clinicien[non neutre] et a beaucoup œuvré pour promouvoir la pédopsychiatrie auprès de ses élèves dont nombre sont devenus des praticiens connus.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_M%C3%A2le</t>
+          <t>Pierre_Mâle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Psychopathologie de l'adolescence, Ed. PUF-Quadrige, 1999,  (ISBN 2130502199)
 De l'enfant à l'adulte, Ed. Payot, 1984,  (ISBN 222822250X)
